--- a/tests/test1/d20/ЛМ, 0.0.xlsx
+++ b/tests/test1/d20/ЛМ, 0.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01147000000000276</v>
+        <v>0.008759799999999984</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004818600000000117</v>
+        <v>0.01649580000000128</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002704999999998847</v>
+        <v>0.009730600000004586</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002869600000003913</v>
+        <v>0.01032410000000539</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002643599999998969</v>
+        <v>0.005085700000002191</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004303800000002411</v>
+        <v>0.003233100000002764</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003019300000005387</v>
+        <v>0.01670660000000623</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002174700000004748</v>
+        <v>0.003354799999996771</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005897300000000882</v>
+        <v>0.02216980000000035</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.00202730000000173</v>
+        <v>0.004606799999997691</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003986500000003446</v>
+        <v>0.0104430000000022</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001926900000000842</v>
+        <v>0.005190100000000086</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.007598899999997855</v>
+        <v>0.009088099999999599</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.008017999999999859</v>
+        <v>0.004023699999997632</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003325900000000104</v>
+        <v>0.004808699999998112</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002351499999996065</v>
+        <v>0.003332900000003747</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.004219500000004928</v>
+        <v>0.004089100000001622</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.00436210000000159</v>
+        <v>0.003729999999997347</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.006462300000002585</v>
+        <v>0.009388299999997685</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002972700000000827</v>
+        <v>0.006281700000002388</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004561700000003555</v>
+        <v>0.01063539999999819</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001916800000003605</v>
+        <v>0.008416000000003976</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.00207460000000026</v>
+        <v>0.008821600000004537</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002861700000003964</v>
+        <v>0.007496299999999678</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002800200000002917</v>
+        <v>0.008494800000001135</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003189700000000073</v>
+        <v>0.005793100000005325</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002097200000001465</v>
+        <v>0.005596400000001722</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002565199999999379</v>
+        <v>0.003377499999999145</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002781099999999981</v>
+        <v>0.004930799999996793</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005748099999998146</v>
+        <v>0.004163600000005374</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.00453049999999422</v>
+        <v>0.002980700000001946</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002895100000003481</v>
+        <v>0.002241699999999014</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00261409999999529</v>
+        <v>0.00345970000000051</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002265000000001294</v>
+        <v>0.005276399999999626</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001828899999999578</v>
+        <v>0.003590500000001384</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002355500000000177</v>
+        <v>0.00424979999999664</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003634500000003982</v>
+        <v>0.00612650000000059</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002393099999999038</v>
+        <v>0.003719199999999034</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002679700000001617</v>
+        <v>0.005035100000000625</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002898000000001844</v>
+        <v>0.006218300000000454</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002645899999997425</v>
+        <v>0.003345199999998272</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003864599999999996</v>
+        <v>0.003561100000005979</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00295089999999476</v>
+        <v>0.005044699999999125</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.004014800000000207</v>
+        <v>0.00295059999999836</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002633099999997057</v>
+        <v>0.005120800000000258</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.003949399999996217</v>
+        <v>0.003912999999997169</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.01031559999999843</v>
+        <v>0.008165800000000445</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002334699999998691</v>
+        <v>0.003368199999997046</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002935899999997105</v>
+        <v>0.003813700000002029</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002074200000002691</v>
+        <v>0.005819799999997599</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003963499999997566</v>
+        <v>0.00782379999999705</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002117699999999445</v>
+        <v>0.00486219999999804</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003141599999999301</v>
+        <v>0.002324600000001453</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003222299999997347</v>
+        <v>0.004285499999994613</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003625499999998283</v>
+        <v>0.004651599999995426</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002098400000001277</v>
+        <v>0.00228609999999918</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002308899999995617</v>
+        <v>0.002717499999995709</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001877300000003856</v>
+        <v>0.001854100000002745</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.003040399999996168</v>
+        <v>0.002951799999998173</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002122399999997526</v>
+        <v>0.004240299999999309</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002095200000006514</v>
+        <v>0.003283100000004424</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002127699999995514</v>
+        <v>0.003213899999998659</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001828899999999578</v>
+        <v>0.001732400000001633</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003360200000003033</v>
+        <v>0.002158999999998912</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002326300000000003</v>
+        <v>0.002268000000000825</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002502900000003194</v>
+        <v>0.005691500000004623</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002143099999997844</v>
+        <v>0.002927599999999586</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002836299999998459</v>
+        <v>0.002932399999998836</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002114200000001176</v>
+        <v>0.002188499999995486</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002500200000000063</v>
+        <v>0.002263400000003912</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005829900000001942</v>
+        <v>0.008808200000004263</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002100399999996228</v>
+        <v>0.004261400000004301</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003178699999999424</v>
+        <v>0.002013499999996782</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00233100000000519</v>
+        <v>0.005770099999999445</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001826800000003459</v>
+        <v>0.001877999999997826</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002120499999996639</v>
+        <v>0.004049500000000705</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002316900000003841</v>
+        <v>0.002518600000001925</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003765600000001257</v>
+        <v>0.003664900000003968</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001854999999999052</v>
+        <v>0.00355040000000173</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00290610000000413</v>
+        <v>0.001948299999995129</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002622299999998745</v>
+        <v>0.002416000000003748</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.0021355000000014</v>
+        <v>0.001966700000004096</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002533599999999581</v>
+        <v>0.002107900000005714</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002083599999998853</v>
+        <v>0.00198859999999712</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002278699999997968</v>
+        <v>0.002032499999998549</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00232549999999776</v>
+        <v>0.002174099999997736</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002079599999994741</v>
+        <v>0.002066599999999141</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00447399999999476</v>
+        <v>0.00419189999999503</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002573999999995635</v>
+        <v>0.002454899999996485</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002348699999998871</v>
+        <v>0.002150700000001393</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002093899999998428</v>
+        <v>0.003868600000004108</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002198599999999828</v>
+        <v>0.001993400000003476</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005078400000002148</v>
+        <v>0.006347800000000348</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002958800000001816</v>
+        <v>0.002390999999995813</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003563100000000929</v>
+        <v>0.004881799999999714</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002826599999998791</v>
+        <v>0.001922999999997899</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002138299999998594</v>
+        <v>0.001931700000000092</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.006034200000001988</v>
+        <v>0.007231400000001997</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003211199999995529</v>
+        <v>0.003362899999999058</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003579000000001997</v>
+        <v>0.002404300000002024</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.0.xlsx
+++ b/tests/test1/d20/ЛМ, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.008759799999999984</v>
+        <v>0.03138750000000812</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.01649580000000128</v>
+        <v>0.006804199999990601</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.009730600000004586</v>
+        <v>0.003363600000000133</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.01032410000000539</v>
+        <v>0.00565539999999487</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.005085700000002191</v>
+        <v>0.01262289999999666</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003233100000002764</v>
+        <v>0.01502569999999537</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.01670660000000623</v>
+        <v>0.009877599999995823</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.003354799999996771</v>
+        <v>0.005339699999993286</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.02216980000000035</v>
+        <v>0.005925799999999981</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004606799999997691</v>
+        <v>0.002264000000010924</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.0104430000000022</v>
+        <v>0.002513699999994401</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.005190100000000086</v>
+        <v>0.004534100000000763</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.009088099999999599</v>
+        <v>0.005493299999997703</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.004023699999997632</v>
+        <v>0.00286880000000167</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004808699999998112</v>
+        <v>0.003091699999998809</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.003332900000003747</v>
+        <v>0.0045312000000024</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.004089100000001622</v>
+        <v>0.002344399999998359</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003729999999997347</v>
+        <v>0.005583500000000186</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.009388299999997685</v>
+        <v>0.002772699999994188</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.006281700000002388</v>
+        <v>0.004831199999998148</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.01063539999999819</v>
+        <v>0.0032779000000005</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.008416000000003976</v>
+        <v>0.002132000000003131</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.008821600000004537</v>
+        <v>0.002591499999994085</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007496299999999678</v>
+        <v>0.003528799999998</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.008494800000001135</v>
+        <v>0.003366799999994896</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005793100000005325</v>
+        <v>0.004508500000000026</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.005596400000001722</v>
+        <v>0.004107799999999884</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003377499999999145</v>
+        <v>0.002699700000007965</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004930799999996793</v>
+        <v>0.004612500000007458</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004163600000005374</v>
+        <v>0.002536699999993175</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002980700000001946</v>
+        <v>0.003369700000007469</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002241699999999014</v>
+        <v>0.004102799999998297</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00345970000000051</v>
+        <v>0.002594500000000721</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.005276399999999626</v>
+        <v>0.002257999999997651</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.003590500000001384</v>
+        <v>0.002002500000003238</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00424979999999664</v>
+        <v>0.002630499999995095</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00612650000000059</v>
+        <v>0.003814900000008947</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.003719199999999034</v>
+        <v>0.002478199999998765</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.005035100000000625</v>
+        <v>0.002755100000001676</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.006218300000000454</v>
+        <v>0.003697599999995305</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.003345199999998272</v>
+        <v>0.002214800000004402</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003561100000005979</v>
+        <v>0.002228999999999814</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.005044699999999125</v>
+        <v>0.002771800000004987</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.00295059999999836</v>
+        <v>0.005957800000004454</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.005120800000000258</v>
+        <v>0.002601200000000858</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.003912999999997169</v>
+        <v>0.002824200000006272</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.008165800000000445</v>
+        <v>0.004934500000004505</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003368199999997046</v>
+        <v>0.00348160000000064</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003813700000002029</v>
+        <v>0.002068600000001197</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.005819799999997599</v>
+        <v>0.002454999999997654</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.00782379999999705</v>
+        <v>0.004247200000008888</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.00486219999999804</v>
+        <v>0.002340099999997847</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002324600000001453</v>
+        <v>0.002515000000002487</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.004285499999994613</v>
+        <v>0.00382910000000436</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.004651599999995426</v>
+        <v>0.002560099999996623</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00228609999999918</v>
+        <v>0.002227900000008276</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002717499999995709</v>
+        <v>0.002295700000004786</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001854100000002745</v>
+        <v>0.002006600000001413</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002951799999998173</v>
+        <v>0.002307299999998236</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004240299999999309</v>
+        <v>0.002258100000005925</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003283100000004424</v>
+        <v>0.002441699999991442</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.003213899999998659</v>
+        <v>0.00240490000000193</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001732400000001633</v>
+        <v>0.002541399999998362</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002158999999998912</v>
+        <v>0.002523699999997575</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002268000000000825</v>
+        <v>0.004841900000002397</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.005691500000004623</v>
+        <v>0.002378500000006056</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002927599999999586</v>
+        <v>0.002361899999996808</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002932399999998836</v>
+        <v>0.003049000000004298</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002188499999995486</v>
+        <v>0.003431800000001317</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002263400000003912</v>
+        <v>0.002501899999998614</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.008808200000004263</v>
+        <v>0.006086100000004535</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.004261400000004301</v>
+        <v>0.003087000000007833</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002013499999996782</v>
+        <v>0.002147299999990082</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005770099999999445</v>
+        <v>0.004100099999988061</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001877999999997826</v>
+        <v>0.001895300000001043</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.004049500000000705</v>
+        <v>0.002155299999998306</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002518600000001925</v>
+        <v>0.002424300000001267</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003664900000003968</v>
+        <v>0.003398000000004231</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00355040000000173</v>
+        <v>0.001929599999996867</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.001948299999995129</v>
+        <v>0.002216000000004215</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002416000000003748</v>
+        <v>0.003157799999996769</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.001966700000004096</v>
+        <v>0.002193400000010115</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002107900000005714</v>
+        <v>0.003240099999999302</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00198859999999712</v>
+        <v>0.003810000000001423</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002032499999998549</v>
+        <v>0.004936099999994781</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002174099999997736</v>
+        <v>0.002458899999993491</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002066599999999141</v>
+        <v>0.005586700000009159</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00419189999999503</v>
+        <v>0.004618000000007783</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002454899999996485</v>
+        <v>0.004784899999989989</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002150700000001393</v>
+        <v>0.006737299999997504</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003868600000004108</v>
+        <v>0.002163699999996993</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001993400000003476</v>
+        <v>0.005590499999996723</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.006347800000000348</v>
+        <v>0.005388300000007007</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002390999999995813</v>
+        <v>0.002803999999997586</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.004881799999999714</v>
+        <v>0.003695699999994417</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001922999999997899</v>
+        <v>0.002153899999996156</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.001931700000000092</v>
+        <v>0.002166599999995356</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007231400000001997</v>
+        <v>0.005505299999995827</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003362899999999058</v>
+        <v>0.003325300000000198</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002404300000002024</v>
+        <v>0.002671100000000592</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.0.xlsx
+++ b/tests/test1/d20/ЛМ, 0.0.xlsx
@@ -582,10 +582,10 @@
         <v>1.325663073920716e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>19.99988292910141</v>
+        <v>19.99988292910142</v>
       </c>
       <c r="G2" t="n">
-        <v>98.78649280299661</v>
+        <v>98.78649280299656</v>
       </c>
       <c r="H2" t="n">
         <v>11.58217066856091</v>
@@ -609,10 +609,10 @@
         <v>21.33251976353872</v>
       </c>
       <c r="O2" t="n">
-        <v>44.32669559540172</v>
+        <v>44.32669559540171</v>
       </c>
       <c r="P2" t="n">
-        <v>21.33235603307472</v>
+        <v>21.33235603307473</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.74206688638119e-11</v>
+        <v>3.742066886460041e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>3.997011853506085e-05</v>
+        <v>3.997011854051719e-05</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.03138750000000812</v>
+        <v>0.003398400000008905</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>1.777169888924799e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>19.99998482744273</v>
+        <v>19.99998482744271</v>
       </c>
       <c r="G3" t="n">
         <v>75.06396584549982</v>
       </c>
       <c r="H3" t="n">
-        <v>11.6438796732326</v>
+        <v>11.64387967323259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>25.60484930330038</v>
       </c>
       <c r="O3" t="n">
-        <v>34.95824082016359</v>
+        <v>34.9582408201636</v>
       </c>
       <c r="P3" t="n">
-        <v>25.60482336113878</v>
+        <v>25.60482336113875</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6.763349889202717e-13</v>
+        <v>6.763349901001118e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>5.364968605688827e-06</v>
+        <v>5.364968611202632e-06</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.006804199999990601</v>
+        <v>0.002346899999992047</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>20.00001177877029</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47873623520114</v>
+        <v>78.4787362352012</v>
       </c>
       <c r="H4" t="n">
-        <v>3.311130722890463</v>
+        <v>3.311130722890459</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>15.56656683285859</v>
       </c>
       <c r="P4" t="n">
-        <v>18.86939644203932</v>
+        <v>18.86939644203931</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.854864918730131e-12</v>
+        <v>3.85486491714032e-12</v>
       </c>
       <c r="V4" t="n">
-        <v>2.532815624711431e-05</v>
+        <v>2.532815624240471e-05</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003363600000000133</v>
+        <v>0.001686100000000579</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -825,16 +825,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5" t="n">
-        <v>1.242869044863373e-05</v>
+        <v>1.242869046135595e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>19.99989073266595</v>
+        <v>19.99989073266594</v>
       </c>
       <c r="G5" t="n">
         <v>99.14368251309756</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49767941490987</v>
+        <v>11.49767941490986</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>44.23825754177933</v>
       </c>
       <c r="P5" t="n">
-        <v>21.20330614940852</v>
+        <v>21.2033061494085</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.292147139571702e-11</v>
+        <v>3.292147140108304e-11</v>
       </c>
       <c r="V5" t="n">
-        <v>3.744562984120707e-05</v>
+        <v>3.744562984481381e-05</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.00565539999999487</v>
+        <v>0.002515399999992951</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.0311515607342e-13</v>
+        <v>1.031151559850859e-13</v>
       </c>
       <c r="V6" t="n">
         <v>1.318674016945885e-06</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01262289999999666</v>
+        <v>0.001946099999997841</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -992,13 +992,13 @@
         <v>2.803781600259717e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>19.99979201888732</v>
+        <v>19.99979201888731</v>
       </c>
       <c r="G7" t="n">
-        <v>39.95878339901618</v>
+        <v>39.95878339901616</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44851883792828</v>
+        <v>13.44851883792827</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>31.91172483743855</v>
       </c>
       <c r="O7" t="n">
-        <v>21.19062839504508</v>
+        <v>21.19062839504506</v>
       </c>
       <c r="P7" t="n">
-        <v>31.91122786492265</v>
+        <v>31.91122786492264</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.569635598303547e-10</v>
+        <v>1.569635598424712e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>8.348423333771399e-05</v>
+        <v>8.348423333892182e-05</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.01502569999999537</v>
+        <v>0.002662500000013779</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1080,7 +1080,7 @@
         <v>160.7148125896977</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983757119887046</v>
+        <v>6.983757119887049</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.054101888094307e-13</v>
+        <v>1.054101888974961e-13</v>
       </c>
       <c r="V8" t="n">
-        <v>1.354123526413048e-06</v>
+        <v>1.354123525459215e-06</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.009877599999995823</v>
+        <v>0.002249299999988352</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.601917622923566e-11</v>
+        <v>7.601917622864454e-11</v>
       </c>
       <c r="V9" t="n">
         <v>7.985351673882638e-05</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.005339699999993286</v>
+        <v>0.001474300000012363</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1265,10 +1265,10 @@
         <v>8.056033186416919</v>
       </c>
       <c r="O10" t="n">
-        <v>81.39277222162097</v>
+        <v>81.39277222162094</v>
       </c>
       <c r="P10" t="n">
-        <v>8.055982639920177</v>
+        <v>8.055982639920181</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.380062051660343e-12</v>
+        <v>9.380062050164424e-12</v>
       </c>
       <c r="V10" t="n">
-        <v>2.542108170323498e-05</v>
+        <v>2.542108169509085e-05</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005925799999999981</v>
+        <v>0.004487199999999802</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>1.86734394089264</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022503974997123</v>
+        <v>9.022503974997125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>3.091363321165256</v>
       </c>
       <c r="P11" t="n">
-        <v>28.24598514600042</v>
+        <v>28.24598514600041</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.505711258308109e-13</v>
+        <v>1.505711259656127e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>2.764111743674011e-06</v>
+        <v>2.764111744375842e-06</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002264000000010924</v>
+        <v>0.003080199999999422</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>138.8374847967034</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249016681278942</v>
+        <v>3.249016681278944</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.473487941657538e-12</v>
+        <v>1.473487940773556e-12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.369384521142218e-05</v>
+        <v>1.369384520965858e-05</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002513699999994401</v>
+        <v>0.002384699999993245</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1490,7 +1490,7 @@
         <v>32.44726990719801</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233884057413903</v>
+        <v>3.233884057413901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7.520775996145838e-11</v>
+        <v>7.520775996112752e-11</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001912691403669019</v>
+        <v>0.0001912691403641916</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004534100000000763</v>
+        <v>0.007647999999988997</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.287011417023036e-12</v>
+        <v>3.287011416959114e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.347471145684058e-05</v>
+        <v>1.347471145703159e-05</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.005493299999997703</v>
+        <v>0.002498099999996839</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.9863782233877</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850496229904802</v>
+        <v>5.850496229904803</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>7.600015017652957e-13</v>
+        <v>7.600015025741306e-13</v>
       </c>
       <c r="V15" t="n">
-        <v>4.154920333843349e-06</v>
+        <v>4.15492033422288e-06</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.00286880000000167</v>
+        <v>0.001776699999993525</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1730,13 +1730,13 @@
         <v>1.587100654877009e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>19.99985518190091</v>
+        <v>19.99985518190089</v>
       </c>
       <c r="G16" t="n">
         <v>92.50985415725296</v>
       </c>
       <c r="H16" t="n">
-        <v>12.2778485066032</v>
+        <v>12.27784850660319</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>23.0795266139911</v>
       </c>
       <c r="O16" t="n">
-        <v>43.51025014167977</v>
+        <v>43.51025014167978</v>
       </c>
       <c r="P16" t="n">
-        <v>23.07931123920997</v>
+        <v>23.07931123920995</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.351835294216122e-11</v>
+        <v>5.351835295700552e-11</v>
       </c>
       <c r="V16" t="n">
-        <v>4.817418181497786e-05</v>
+        <v>4.817418181158193e-05</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003091699999998809</v>
+        <v>0.002009899999990239</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.751072100565575e-11</v>
+        <v>1.751072100574631e-11</v>
       </c>
       <c r="V17" t="n">
         <v>2.616422893680326e-05</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.0045312000000024</v>
+        <v>0.001578100000017457</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>20.00005181618225</v>
       </c>
       <c r="G18" t="n">
-        <v>40.19234192418893</v>
+        <v>40.19234192418895</v>
       </c>
       <c r="H18" t="n">
-        <v>9.278032387115946</v>
+        <v>9.278032387115939</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>17.88768610068966</v>
       </c>
       <c r="P18" t="n">
-        <v>27.20348338301591</v>
+        <v>27.2034833830159</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.715192054342828e-11</v>
+        <v>1.715192054064712e-11</v>
       </c>
       <c r="V18" t="n">
-        <v>3.122464890141178e-05</v>
+        <v>3.122464889835131e-05</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002344399999998359</v>
+        <v>0.001643800000010742</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9999893626215</v>
       </c>
       <c r="F19" t="n">
-        <v>20.00006950270001</v>
+        <v>20.0000695027</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03964196754849</v>
+        <v>53.0396419675485</v>
       </c>
       <c r="H19" t="n">
-        <v>9.367116076087203</v>
+        <v>9.367116076087193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>22.80759879413548</v>
       </c>
       <c r="P19" t="n">
-        <v>26.18996745634337</v>
+        <v>26.18996745634335</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.275138328774337e-11</v>
+        <v>2.275138327457752e-11</v>
       </c>
       <c r="V19" t="n">
-        <v>3.353979411483689e-05</v>
+        <v>3.353979411086187e-05</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.005583500000000186</v>
+        <v>0.002043100000008735</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.34552794776766e-13</v>
+        <v>6.345527945662974e-13</v>
       </c>
       <c r="V20" t="n">
         <v>4.902730565841187e-06</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002772699999994188</v>
+        <v>0.002042900000020609</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>359.9999989751918</v>
       </c>
       <c r="F21" t="n">
-        <v>20.00000250825117</v>
+        <v>20.00000250825118</v>
       </c>
       <c r="G21" t="n">
         <v>17.55604629904492</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13500779045073</v>
+        <v>12.13500779045072</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.587317167741999e-13</v>
+        <v>1.587317166256689e-13</v>
       </c>
       <c r="V21" t="n">
-        <v>3.385374433771418e-06</v>
+        <v>3.385374433405461e-06</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.004831199999998148</v>
+        <v>0.001644999999996344</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>5.390802928423642e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>19.99994682135376</v>
+        <v>19.99994682135377</v>
       </c>
       <c r="G22" t="n">
         <v>105.8635603954908</v>
       </c>
       <c r="H22" t="n">
-        <v>13.77251396561104</v>
+        <v>13.77251396561105</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>52.99085970981002</v>
       </c>
       <c r="P22" t="n">
-        <v>21.37408018214223</v>
+        <v>21.37408018214224</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.807954614643888e-12</v>
+        <v>5.807954612251488e-12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.660170927436793e-05</v>
+        <v>1.660170927256951e-05</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.0032779000000005</v>
+        <v>0.002207800000007865</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>8.770449144104516</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469366990030579</v>
+        <v>6.469366990030573</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.114466985060202e-12</v>
+        <v>2.114466984823709e-12</v>
       </c>
       <c r="V23" t="n">
-        <v>2.3362958360958e-05</v>
+        <v>2.336295835832013e-05</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002132000000003131</v>
+        <v>0.001366799999999557</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>9.805967986544906e-12</v>
+        <v>9.80596798689685e-12</v>
       </c>
       <c r="V24" t="n">
-        <v>2.484658767427232e-05</v>
+        <v>2.484658767471362e-05</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002591499999994085</v>
+        <v>0.001684900000014977</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,13 +2468,13 @@
         <v>2.53435084011125e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>19.99997444453063</v>
+        <v>19.99997444453064</v>
       </c>
       <c r="G25" t="n">
         <v>93.11362291022557</v>
       </c>
       <c r="H25" t="n">
-        <v>14.36352569689294</v>
+        <v>14.36352569689295</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         <v>24.6655445066675</v>
       </c>
       <c r="O25" t="n">
-        <v>48.17804538847387</v>
+        <v>48.17804538847386</v>
       </c>
       <c r="P25" t="n">
-        <v>24.66550561056081</v>
+        <v>24.66550561056083</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.324631299514169e-12</v>
+        <v>1.324631299809595e-12</v>
       </c>
       <c r="V25" t="n">
-        <v>7.871534868178448e-06</v>
+        <v>7.871534865123085e-06</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003528799999998</v>
+        <v>0.002112600000003795</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.035828468946081e-13</v>
+        <v>3.035828466658588e-13</v>
       </c>
       <c r="V26" t="n">
         <v>2.340869820798241e-06</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003366799999994896</v>
+        <v>0.002097400000025118</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2659,10 +2659,10 @@
         <v>8.709475492388034</v>
       </c>
       <c r="O27" t="n">
-        <v>42.87464838447301</v>
+        <v>42.874648384473</v>
       </c>
       <c r="P27" t="n">
-        <v>8.709508937112053</v>
+        <v>8.709508937112055</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>9.753280022950294e-12</v>
+        <v>9.753280024061214e-12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.51806188720553e-05</v>
+        <v>1.518061887239523e-05</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004508500000000026</v>
+        <v>0.002578400000004422</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2741,7 +2741,7 @@
         <v>25.81162416209323</v>
       </c>
       <c r="O28" t="n">
-        <v>23.50224172899404</v>
+        <v>23.50224172899406</v>
       </c>
       <c r="P28" t="n">
         <v>25.81176647413951</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.230444102016773e-11</v>
+        <v>2.23044410203358e-11</v>
       </c>
       <c r="V28" t="n">
-        <v>3.310684194407508e-05</v>
+        <v>3.310684194382334e-05</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004107799999999884</v>
+        <v>0.001545300000003635</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2799,7 +2799,7 @@
         <v>19.9999521130163</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62986293790328</v>
+        <v>76.62986293790327</v>
       </c>
       <c r="H29" t="n">
         <v>12.77495832153229</v>
@@ -2823,10 +2823,10 @@
         <v>26.39565896564254</v>
       </c>
       <c r="O29" t="n">
-        <v>37.54461625287082</v>
+        <v>37.54461625287081</v>
       </c>
       <c r="P29" t="n">
-        <v>26.39557722127925</v>
+        <v>26.39557722127926</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>5.950855240310173e-12</v>
+        <v>5.950855240758195e-12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.597019378258302e-05</v>
+        <v>1.597019378015663e-05</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002699700000007965</v>
+        <v>0.001943399999987605</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9999786031582</v>
       </c>
       <c r="F30" t="n">
-        <v>20.00015695116979</v>
+        <v>20.00015695116978</v>
       </c>
       <c r="G30" t="n">
         <v>131.2222307149676</v>
       </c>
       <c r="H30" t="n">
-        <v>9.73498147712062</v>
+        <v>9.734981477120611</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>45.79207750498168</v>
       </c>
       <c r="P30" t="n">
-        <v>13.89084462646075</v>
+        <v>13.89084462646074</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.88346077678444e-11</v>
+        <v>9.883460775672163e-11</v>
       </c>
       <c r="V30" t="n">
-        <v>5.859336742111239e-05</v>
+        <v>5.859336741755266e-05</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004612500000007458</v>
+        <v>0.002116900000004307</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2987,10 +2987,10 @@
         <v>11.25757446175414</v>
       </c>
       <c r="O31" t="n">
-        <v>22.82783986343464</v>
+        <v>22.82783986343465</v>
       </c>
       <c r="P31" t="n">
-        <v>11.2575788743468</v>
+        <v>11.25757887434679</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.250681962460466e-13</v>
+        <v>1.250681960843757e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>1.475911481950977e-06</v>
+        <v>1.47591148089903e-06</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002536699999993175</v>
+        <v>0.001798400000012634</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3048,7 +3048,7 @@
         <v>115.9455425294401</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5690527007701</v>
+        <v>7.569052700770098</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>34.85114689256567</v>
       </c>
       <c r="P32" t="n">
-        <v>16.34073252334821</v>
+        <v>16.3407325233482</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3087,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.850031300401895e-11</v>
+        <v>6.850031300022341e-11</v>
       </c>
       <c r="V32" t="n">
-        <v>5.098802861000643e-05</v>
+        <v>5.098802860869498e-05</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003369700000007469</v>
+        <v>0.001720000000005939</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,10 +3124,10 @@
         <v>2.143127518106498e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>19.99981244992064</v>
+        <v>19.99981244992062</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48968235430861</v>
+        <v>51.48968235430859</v>
       </c>
       <c r="H33" t="n">
         <v>14.49705014916094</v>
@@ -3154,7 +3154,7 @@
         <v>27.6517116883389</v>
       </c>
       <c r="P33" t="n">
-        <v>31.85361025100372</v>
+        <v>31.8536102510037</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>9.652830251800991e-11</v>
+        <v>9.652830252726515e-11</v>
       </c>
       <c r="V33" t="n">
-        <v>6.423632014959839e-05</v>
+        <v>6.423632015205944e-05</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004102799999998297</v>
+        <v>0.002292300000021896</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3209,10 +3209,10 @@
         <v>20.00002770829277</v>
       </c>
       <c r="G34" t="n">
-        <v>154.5999467282154</v>
+        <v>154.5999467282155</v>
       </c>
       <c r="H34" t="n">
-        <v>7.472539136893013</v>
+        <v>7.472539136893012</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>28.38669913386622</v>
       </c>
       <c r="P34" t="n">
-        <v>10.55222988145675</v>
+        <v>10.55222988145674</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>8.859623148585766e-12</v>
+        <v>8.859623148740386e-12</v>
       </c>
       <c r="V34" t="n">
-        <v>1.205445617482964e-05</v>
+        <v>1.205445617326082e-05</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002594500000000721</v>
+        <v>0.002206099999995104</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3288,13 +3288,13 @@
         <v>359.999988207795</v>
       </c>
       <c r="F35" t="n">
-        <v>20.00006297290562</v>
+        <v>20.00006297290563</v>
       </c>
       <c r="G35" t="n">
         <v>44.73173298929638</v>
       </c>
       <c r="H35" t="n">
-        <v>8.399787226849261</v>
+        <v>8.399787226849263</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.621450307922865e-11</v>
+        <v>2.621450308237089e-11</v>
       </c>
       <c r="V35" t="n">
-        <v>3.949160504986559e-05</v>
+        <v>3.949160505062292e-05</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002257999999997651</v>
+        <v>0.001581299999998009</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3400,7 +3400,7 @@
         <v>5.272503745025789</v>
       </c>
       <c r="P36" t="n">
-        <v>32.24487275583252</v>
+        <v>32.24487275583253</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.403686657512278e-12</v>
+        <v>3.403686657833771e-12</v>
       </c>
       <c r="V36" t="n">
-        <v>2.075938481739934e-05</v>
+        <v>2.075938481812586e-05</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002002500000003238</v>
+        <v>0.001345700000001671</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9999980613829</v>
       </c>
       <c r="F37" t="n">
-        <v>20.00001184257571</v>
+        <v>20.00001184257572</v>
       </c>
       <c r="G37" t="n">
-        <v>82.44985711925</v>
+        <v>82.44985711924997</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700204561819391</v>
+        <v>6.700204561819396</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>7.907389940266874e-13</v>
+        <v>7.907389946634202e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>6.47409665276844e-06</v>
+        <v>6.474096655711375e-06</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002630499999995095</v>
+        <v>0.001924100000024964</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3561,7 +3561,7 @@
         <v>13.96841538265422</v>
       </c>
       <c r="O38" t="n">
-        <v>48.1634956639345</v>
+        <v>48.16349566393448</v>
       </c>
       <c r="P38" t="n">
         <v>13.96853549255026</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>5.053826677040955e-11</v>
+        <v>5.053826677093446e-11</v>
       </c>
       <c r="V38" t="n">
         <v>4.260590007044008e-05</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003814900000008947</v>
+        <v>0.002745099999998502</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3622,7 +3622,7 @@
         <v>170.0093791828585</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569177241853476</v>
+        <v>8.569177241853474</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>22.15312492728342</v>
       </c>
       <c r="P39" t="n">
-        <v>7.834935909032783</v>
+        <v>7.834935909032788</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.017585094582101e-13</v>
+        <v>1.017585094443201e-13</v>
       </c>
       <c r="V39" t="n">
-        <v>1.295085438890465e-06</v>
+        <v>1.295085440542319e-06</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002478199999998765</v>
+        <v>0.001742600000000039</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3695,7 +3695,7 @@
         <v>13.31649415908743</v>
       </c>
       <c r="E40" t="n">
-        <v>3.428517619872962e-06</v>
+        <v>3.428517632595181e-06</v>
       </c>
       <c r="F40" t="n">
         <v>19.99996883912592</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.508187889822283e-12</v>
+        <v>2.508187889501601e-12</v>
       </c>
       <c r="V40" t="n">
         <v>1.034496387364266e-05</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002755100000001676</v>
+        <v>0.00237749999999437</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3777,7 +3777,7 @@
         <v>12.57478825539126</v>
       </c>
       <c r="E41" t="n">
-        <v>9.323823910369309e-07</v>
+        <v>9.323824037591496e-07</v>
       </c>
       <c r="F41" t="n">
         <v>19.99999133424582</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.822036707350005e-13</v>
+        <v>1.822036707708641e-13</v>
       </c>
       <c r="V41" t="n">
         <v>2.834556583275816e-06</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003697599999995305</v>
+        <v>0.002212000000014314</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3862,13 +3862,13 @@
         <v>359.9999942175535</v>
       </c>
       <c r="F42" t="n">
-        <v>20.00001656954728</v>
+        <v>20.00001656954729</v>
       </c>
       <c r="G42" t="n">
-        <v>73.38332334401443</v>
+        <v>73.3833233440145</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664414712677313</v>
+        <v>3.664414712677312</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.81314146930216e-12</v>
+        <v>5.813141468045928e-12</v>
       </c>
       <c r="V42" t="n">
-        <v>2.943838100123882e-05</v>
+        <v>2.943838099921179e-05</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002214800000004402</v>
+        <v>0.00160080000000562</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>20.00000095544026</v>
       </c>
       <c r="G43" t="n">
-        <v>45.166181905992</v>
+        <v>45.16618190599204</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553157889472786</v>
+        <v>3.553157889472783</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.541602387917055e-13</v>
+        <v>2.541602384259065e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>8.591975218794302e-06</v>
+        <v>8.591975215214003e-06</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002228999999999814</v>
+        <v>0.001640799999989895</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.652000724141075e-12</v>
+        <v>6.652000725088049e-12</v>
       </c>
       <c r="V44" t="n">
-        <v>1.693021043633798e-05</v>
+        <v>1.693021043715507e-05</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002771800000004987</v>
+        <v>0.002037500000000136</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.9999987040416</v>
       </c>
       <c r="F45" t="n">
-        <v>20.00000318370987</v>
+        <v>20.00000318370988</v>
       </c>
       <c r="G45" t="n">
         <v>20.70981706384916</v>
@@ -4135,10 +4135,10 @@
         <v>29.48104188665291</v>
       </c>
       <c r="O45" t="n">
-        <v>10.84139965813136</v>
+        <v>10.84139965813135</v>
       </c>
       <c r="P45" t="n">
-        <v>29.48106012263997</v>
+        <v>29.48106012263998</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.581817110817665e-13</v>
+        <v>2.581817108722088e-13</v>
       </c>
       <c r="V45" t="n">
-        <v>4.489896253832913e-06</v>
+        <v>4.489896248622388e-06</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.005957800000004454</v>
+        <v>0.001593900000017356</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4220,7 +4220,7 @@
         <v>15.96520781709051</v>
       </c>
       <c r="P46" t="n">
-        <v>13.46644140511986</v>
+        <v>13.46644140511987</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4235,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.562744004508862e-12</v>
+        <v>3.562744003772495e-12</v>
       </c>
       <c r="V46" t="n">
-        <v>1.625380800631918e-05</v>
+        <v>1.625380800675888e-05</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002601200000000858</v>
+        <v>0.001850500000017519</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.0220063647078</v>
       </c>
       <c r="H47" t="n">
-        <v>9.594500722452841</v>
+        <v>9.594500722452842</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>6.082586648846124</v>
       </c>
       <c r="O47" t="n">
-        <v>14.93707128034026</v>
+        <v>14.93707128034027</v>
       </c>
       <c r="P47" t="n">
-        <v>6.082617450980504</v>
+        <v>6.082617450980502</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.024044916406477e-11</v>
+        <v>2.024044916295749e-11</v>
       </c>
       <c r="V47" t="n">
-        <v>2.077258611195894e-05</v>
+        <v>2.077258611100935e-05</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002824200000006272</v>
+        <v>0.001554900000002135</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4381,7 +4381,7 @@
         <v>11.82955794607099</v>
       </c>
       <c r="O48" t="n">
-        <v>50.84771447317476</v>
+        <v>50.84771447317477</v>
       </c>
       <c r="P48" t="n">
         <v>11.82961821242139</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.680710591161514e-11</v>
+        <v>1.680710591336529e-11</v>
       </c>
       <c r="V48" t="n">
-        <v>2.382853206090481e-05</v>
+        <v>2.382853206182359e-05</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004934500000004505</v>
+        <v>0.003218500000002678</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4466,7 +4466,7 @@
         <v>12.18983627842943</v>
       </c>
       <c r="P49" t="n">
-        <v>34.68948870679436</v>
+        <v>34.68948870679437</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>8.588687672747386e-13</v>
+        <v>8.588687679147879e-13</v>
       </c>
       <c r="V49" t="n">
-        <v>6.887470897767301e-06</v>
+        <v>6.887470898410912e-06</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.00348160000000064</v>
+        <v>0.001673000000010916</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.471507936128168e-13</v>
+        <v>1.471507937326808e-13</v>
       </c>
       <c r="V50" t="n">
-        <v>4.51924423733771e-06</v>
+        <v>4.519244237661889e-06</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002068600000001197</v>
+        <v>0.001441300000010415</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>20.00004721578809</v>
       </c>
       <c r="G51" t="n">
-        <v>54.17339066182139</v>
+        <v>54.17339066182137</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964803243999123</v>
+        <v>5.964803243999127</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2.150738951089408e-11</v>
+        <v>2.150738951235576e-11</v>
       </c>
       <c r="V51" t="n">
-        <v>4.225633096296573e-05</v>
+        <v>4.225633096516532e-05</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002454999999997654</v>
+        <v>0.001586300000013807</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,10 +4685,10 @@
         <v>20.00000827183466</v>
       </c>
       <c r="G52" t="n">
-        <v>89.02825790895595</v>
+        <v>89.02825790895598</v>
       </c>
       <c r="H52" t="n">
-        <v>5.737003230135274</v>
+        <v>5.737003230135273</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>4.704026848193971e-13</v>
+        <v>4.704026849679286e-13</v>
       </c>
       <c r="V52" t="n">
-        <v>5.21797217897181e-06</v>
+        <v>5.21797217858477e-06</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004247200000008888</v>
+        <v>0.002017800000004399</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>1.084828367586204e-11</v>
+        <v>1.084828367352306e-11</v>
       </c>
       <c r="V53" t="n">
-        <v>2.17804913028139e-05</v>
+        <v>2.178049130139282e-05</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002340099999997847</v>
+        <v>0.001648900000020603</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4846,13 +4846,13 @@
         <v>359.9999980174772</v>
       </c>
       <c r="F54" t="n">
-        <v>19.99999984659835</v>
+        <v>19.99999984659834</v>
       </c>
       <c r="G54" t="n">
         <v>148.1597215950793</v>
       </c>
       <c r="H54" t="n">
-        <v>3.31340883618657</v>
+        <v>3.313408836186566</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4873,10 +4873,10 @@
         <v>14.38207027932934</v>
       </c>
       <c r="O54" t="n">
-        <v>13.13409344502572</v>
+        <v>13.1340934450257</v>
       </c>
       <c r="P54" t="n">
-        <v>14.38208272002363</v>
+        <v>14.38208272002364</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>6.492205263819372e-13</v>
+        <v>6.492205262587501e-13</v>
       </c>
       <c r="V54" t="n">
-        <v>1.050429546664943e-05</v>
+        <v>1.050429546987091e-05</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002515000000002487</v>
+        <v>0.001569600000010496</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>5.270841173474423e-12</v>
+        <v>5.270841175614447e-12</v>
       </c>
       <c r="V55" t="n">
         <v>1.153068075374652e-05</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00382910000000436</v>
+        <v>0.002919400000024552</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5016,7 +5016,7 @@
         <v>75.63291354493221</v>
       </c>
       <c r="H56" t="n">
-        <v>7.358882359638078</v>
+        <v>7.358882359638081</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>5.116116721125814e-13</v>
+        <v>5.116116725000528e-13</v>
       </c>
       <c r="V56" t="n">
-        <v>5.130129671611529e-06</v>
+        <v>5.130129673360278e-06</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002560099999996623</v>
+        <v>0.00208109999999806</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5122,7 +5122,7 @@
         <v>10.33697876953206</v>
       </c>
       <c r="P57" t="n">
-        <v>34.79297594749581</v>
+        <v>34.79297594749582</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>2.450986960112839e-13</v>
+        <v>2.450986961281099e-13</v>
       </c>
       <c r="V57" t="n">
-        <v>3.89584850989676e-06</v>
+        <v>3.895848510842984e-06</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002227900000008276</v>
+        <v>0.001556200000010222</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>177.154512208285</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000935247894604</v>
+        <v>7.000935247894605</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>10.01126332428078</v>
       </c>
       <c r="P58" t="n">
-        <v>9.131913684693538</v>
+        <v>9.13191368469354</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -5219,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>8.905266600234072e-13</v>
+        <v>8.905266598510841e-13</v>
       </c>
       <c r="V58" t="n">
-        <v>6.644958982678216e-06</v>
+        <v>6.644958982368092e-06</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002295700000004786</v>
+        <v>0.0020607999999811</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5262,7 +5262,7 @@
         <v>15.72277761500312</v>
       </c>
       <c r="H59" t="n">
-        <v>5.765845976771601</v>
+        <v>5.765845976771598</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>7.218659999298729</v>
       </c>
       <c r="P59" t="n">
-        <v>24.23583924853766</v>
+        <v>24.23583924853765</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1.78436971292242e-11</v>
+        <v>1.784369712572357e-11</v>
       </c>
       <c r="V59" t="n">
-        <v>6.579693021881425e-05</v>
+        <v>6.579693021717029e-05</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002006600000001413</v>
+        <v>0.001560299999994186</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9999808842503</v>
       </c>
       <c r="F60" t="n">
-        <v>20.00012740409539</v>
+        <v>20.00012740409541</v>
       </c>
       <c r="G60" t="n">
-        <v>65.71884318080205</v>
+        <v>65.71884318080208</v>
       </c>
       <c r="H60" t="n">
-        <v>8.414589763358089</v>
+        <v>8.414589763358094</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>25.72188831339714</v>
       </c>
       <c r="P60" t="n">
-        <v>23.90469272245461</v>
+        <v>23.90469272245462</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>7.568274266108429e-11</v>
+        <v>7.568274266674261e-11</v>
       </c>
       <c r="V60" t="n">
-        <v>6.109529493039705e-05</v>
+        <v>6.109529493226063e-05</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002307299999998236</v>
+        <v>0.001617799999991121</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5426,7 +5426,7 @@
         <v>166.3262659244901</v>
       </c>
       <c r="H61" t="n">
-        <v>4.89443809548479</v>
+        <v>4.894438095484787</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>6.098327204539135e-13</v>
+        <v>6.098327208589866e-13</v>
       </c>
       <c r="V61" t="n">
-        <v>7.531510309375841e-06</v>
+        <v>7.531510311232176e-06</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002258100000005925</v>
+        <v>0.001551900000009709</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.00002716054743</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15700728494684</v>
+        <v>54.15700728494682</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243390108210741</v>
+        <v>5.243390108210742</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>21.9814878807647</v>
       </c>
       <c r="O62" t="n">
-        <v>16.57573989148529</v>
+        <v>16.57573989148527</v>
       </c>
       <c r="P62" t="n">
         <v>21.98156438579262</v>
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>9.570052287386901e-12</v>
+        <v>9.570052288653985e-12</v>
       </c>
       <c r="V62" t="n">
-        <v>3.150526070757646e-05</v>
+        <v>3.150526070089452e-05</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002441699999991442</v>
+        <v>0.001657399999999143</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.4039557822097</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176182115591514</v>
+        <v>5.176182115591516</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,7 +5611,7 @@
         <v>12.87701081010599</v>
       </c>
       <c r="O63" t="n">
-        <v>20.09733081990307</v>
+        <v>20.09733081990308</v>
       </c>
       <c r="P63" t="n">
         <v>12.87710688228698</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>4.626373256609257e-11</v>
+        <v>4.62637325679955e-11</v>
       </c>
       <c r="V63" t="n">
-        <v>3.698043751684461e-05</v>
+        <v>3.698043751575675e-05</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00240490000000193</v>
+        <v>0.001618999999976722</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.075838190687061</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869335626355378</v>
+        <v>8.86933562635538</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1.243012367986891e-12</v>
+        <v>1.243012368397048e-12</v>
       </c>
       <c r="V64" t="n">
-        <v>1.52264429764246e-05</v>
+        <v>1.522644297713631e-05</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002541399999998362</v>
+        <v>0.001363700000013068</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9999942035487</v>
       </c>
       <c r="F65" t="n">
-        <v>20.00004002354896</v>
+        <v>20.00004002354895</v>
       </c>
       <c r="G65" t="n">
         <v>99.70930282004689</v>
       </c>
       <c r="H65" t="n">
-        <v>7.755002866895918</v>
+        <v>7.755002866895917</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5793,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>7.391437120619318e-12</v>
+        <v>7.391437119096325e-12</v>
       </c>
       <c r="V65" t="n">
-        <v>1.781971113414611e-05</v>
+        <v>1.781971113323308e-05</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002523699999997575</v>
+        <v>0.002239599999995789</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>3.582229413018196e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>19.99997320610789</v>
+        <v>19.9999732061079</v>
       </c>
       <c r="G66" t="n">
-        <v>68.23775336486774</v>
+        <v>68.23775336486773</v>
       </c>
       <c r="H66" t="n">
-        <v>9.805153194668947</v>
+        <v>9.805153194668954</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         <v>24.88481197061157</v>
       </c>
       <c r="O66" t="n">
-        <v>29.08873883419437</v>
+        <v>29.08873883419436</v>
       </c>
       <c r="P66" t="n">
-        <v>24.88476363870986</v>
+        <v>24.88476363870987</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2.711147802793948e-12</v>
+        <v>2.711147801125222e-12</v>
       </c>
       <c r="V66" t="n">
-        <v>1.100359598630985e-05</v>
+        <v>1.100359598259793e-05</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004841900000002397</v>
+        <v>0.001911500000005617</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>19.99999983594865</v>
       </c>
       <c r="G67" t="n">
-        <v>39.3560646217101</v>
+        <v>39.35606462171008</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376838075247091</v>
+        <v>3.376838075247093</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>9.057620421728475e-14</v>
+        <v>9.057620421665588e-14</v>
       </c>
       <c r="V67" t="n">
-        <v>5.827847272908118e-06</v>
+        <v>5.827847274933767e-06</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002378500000006056</v>
+        <v>0.001527299999992238</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>19.99999975174529</v>
       </c>
       <c r="G68" t="n">
-        <v>27.77174771833615</v>
+        <v>27.77174771833613</v>
       </c>
       <c r="H68" t="n">
-        <v>4.604399525311589</v>
+        <v>4.604399525311595</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6039,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>4.897314366819949e-14</v>
+        <v>4.897314384524394e-14</v>
       </c>
       <c r="V68" t="n">
-        <v>3.525961688218721e-06</v>
+        <v>3.525961692829322e-06</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002361899999996808</v>
+        <v>0.00181580000000281</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>6.891938872990604e-13</v>
+        <v>6.891938874731965e-13</v>
       </c>
       <c r="V69" t="n">
-        <v>5.594017396930808e-06</v>
+        <v>5.594017397598296e-06</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003049000000004298</v>
+        <v>0.002212399999990566</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6158,13 +6158,13 @@
         <v>359.9999986223071</v>
       </c>
       <c r="F70" t="n">
-        <v>20.00000117666072</v>
+        <v>20.00000117666071</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68678689929584</v>
+        <v>46.6867868992958</v>
       </c>
       <c r="H70" t="n">
-        <v>3.520341032103711</v>
+        <v>3.520341032103715</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>2.94469970961583e-13</v>
+        <v>2.944699709083232e-13</v>
       </c>
       <c r="V70" t="n">
-        <v>9.186539183273656e-06</v>
+        <v>9.186539186902363e-06</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003431800000001317</v>
+        <v>0.001601200000010294</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6246,7 +6246,7 @@
         <v>53.3248578366992</v>
       </c>
       <c r="H71" t="n">
-        <v>12.70873457391589</v>
+        <v>12.70873457391588</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>26.8338223757762</v>
       </c>
       <c r="P71" t="n">
-        <v>29.68928934203831</v>
+        <v>29.68928934203829</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.597554127503828e-11</v>
+        <v>1.597554127663249e-11</v>
       </c>
       <c r="V71" t="n">
-        <v>2.616205332842512e-05</v>
+        <v>2.616205333116948e-05</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002501899999998614</v>
+        <v>0.001883199999980434</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>166.9464412577847</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46915812832105</v>
+        <v>13.46915812832106</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6349,10 +6349,10 @@
         <v>5.091810049838018</v>
       </c>
       <c r="O72" t="n">
-        <v>71.23041868009499</v>
+        <v>71.230418680095</v>
       </c>
       <c r="P72" t="n">
-        <v>5.091836014738661</v>
+        <v>5.091836014738663</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>7.141904715790063e-12</v>
+        <v>7.141904716282658e-12</v>
       </c>
       <c r="V72" t="n">
-        <v>1.902212552531639e-05</v>
+        <v>1.902212551978153e-05</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006086100000004535</v>
+        <v>0.004099899999999934</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>2.191065839486029e-12</v>
+        <v>2.191065839565295e-12</v>
       </c>
       <c r="V73" t="n">
         <v>1.347189756287782e-05</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003087000000007833</v>
+        <v>0.001629100000002381</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,10 +6486,10 @@
         <v>359.9999988091228</v>
       </c>
       <c r="F74" t="n">
-        <v>20.00000299526465</v>
+        <v>20.00000299526464</v>
       </c>
       <c r="G74" t="n">
-        <v>19.2128731234264</v>
+        <v>19.21287312342639</v>
       </c>
       <c r="H74" t="n">
         <v>11.21212388137626</v>
@@ -6516,7 +6516,7 @@
         <v>10.53944826758323</v>
       </c>
       <c r="P74" t="n">
-        <v>30.60513686661287</v>
+        <v>30.60513686661286</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>2.168186445217574e-13</v>
+        <v>2.168186443806079e-13</v>
       </c>
       <c r="V74" t="n">
-        <v>4.012510602485216e-06</v>
+        <v>4.012510602219267e-06</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002147299999990082</v>
+        <v>0.001540999999974701</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6574,7 +6574,7 @@
         <v>115.683818963016</v>
       </c>
       <c r="H75" t="n">
-        <v>9.463646086838805</v>
+        <v>9.463646086838802</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>42.46368992231073</v>
       </c>
       <c r="P75" t="n">
-        <v>16.89292739931162</v>
+        <v>16.89292739931161</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>2.734239337928833e-10</v>
+        <v>2.73423933774522e-10</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0001026951481224817</v>
+        <v>0.0001026951481211927</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004100099999988061</v>
+        <v>0.001877000000007456</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>1.125962023732392e-10</v>
+        <v>1.12596202383923e-10</v>
       </c>
       <c r="V76" t="n">
         <v>7.250122589896005e-05</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001895300000001043</v>
+        <v>0.001400100000012117</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6735,10 +6735,10 @@
         <v>20.00004272132654</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4084906156404</v>
+        <v>102.4084906156405</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791594372220182</v>
+        <v>3.791594372220181</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6759,10 +6759,10 @@
         <v>17.33986823530514</v>
       </c>
       <c r="O77" t="n">
-        <v>18.89078330200774</v>
+        <v>18.89078330200775</v>
       </c>
       <c r="P77" t="n">
-        <v>17.33996956010498</v>
+        <v>17.33996956010497</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>2.857655862715723e-11</v>
+        <v>2.857655862454402e-11</v>
       </c>
       <c r="V77" t="n">
-        <v>4.699263353994962e-05</v>
+        <v>4.699263353554605e-05</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002155299999998306</v>
+        <v>0.001769999999993388</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,7 +6817,7 @@
         <v>19.9998822052002</v>
       </c>
       <c r="G78" t="n">
-        <v>55.94937720120319</v>
+        <v>55.94937720120318</v>
       </c>
       <c r="H78" t="n">
         <v>12.82771966711258</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>4.213809901688308e-11</v>
+        <v>4.213809901965463e-11</v>
       </c>
       <c r="V78" t="n">
-        <v>4.236374725023872e-05</v>
+        <v>4.236374725007512e-05</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002424300000001267</v>
+        <v>0.001854800000018031</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>3.804201439538606e-11</v>
+        <v>3.804201439573718e-11</v>
       </c>
       <c r="V79" t="n">
-        <v>2.807384715642776e-05</v>
+        <v>2.807384715684255e-05</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003398000000004231</v>
+        <v>0.002541699999994762</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7008,7 +7008,7 @@
         <v>5.94803395282236</v>
       </c>
       <c r="P80" t="n">
-        <v>30.80215123966909</v>
+        <v>30.80215123966908</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -7023,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>6.88172230633257e-12</v>
+        <v>6.88172230529646e-12</v>
       </c>
       <c r="V80" t="n">
-        <v>2.953629518139912e-05</v>
+        <v>2.953629517962987e-05</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001929599999996867</v>
+        <v>0.001405400000010104</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>1.898308188758778e-10</v>
+        <v>1.898308188754485e-10</v>
       </c>
       <c r="V81" t="n">
         <v>9.093477682317051e-05</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002216000000004215</v>
+        <v>0.001983400000000302</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
@@ -7142,13 +7142,13 @@
         <v>7.833121085605439e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>19.99993165412416</v>
+        <v>19.99993165412415</v>
       </c>
       <c r="G82" t="n">
         <v>93.94486426531485</v>
       </c>
       <c r="H82" t="n">
-        <v>11.39281678592685</v>
+        <v>11.39281678592683</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,7 +7172,7 @@
         <v>42.00784715122262</v>
       </c>
       <c r="P82" t="n">
-        <v>22.12900343670877</v>
+        <v>22.12900343670875</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7187,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>1.315284566611498e-11</v>
+        <v>1.315284566792843e-11</v>
       </c>
       <c r="V82" t="n">
-        <v>2.365069070669876e-05</v>
+        <v>2.365069071037541e-05</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003157799999996769</v>
+        <v>0.001990700000021661</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7251,7 +7251,7 @@
         <v>22.88308841551866</v>
       </c>
       <c r="O83" t="n">
-        <v>22.66006511250855</v>
+        <v>22.66006511250854</v>
       </c>
       <c r="P83" t="n">
         <v>22.88340387010621</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>1.484460759374841e-10</v>
+        <v>1.484460759404223e-10</v>
       </c>
       <c r="V83" t="n">
-        <v>9.312702050658989e-05</v>
+        <v>9.312702049948447e-05</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002193400000010115</v>
+        <v>0.001615500000013981</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7309,7 +7309,7 @@
         <v>19.99995080027844</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54064319786691</v>
+        <v>49.5406431978669</v>
       </c>
       <c r="H84" t="n">
         <v>10.67071385705921</v>
@@ -7336,7 +7336,7 @@
         <v>23.01381036999383</v>
       </c>
       <c r="P84" t="n">
-        <v>27.91446246871342</v>
+        <v>27.91446246871344</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1.010899985695116e-11</v>
+        <v>1.010899984886017e-11</v>
       </c>
       <c r="V84" t="n">
-        <v>2.168057338988959e-05</v>
+        <v>2.16805733871643e-05</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003240099999999302</v>
+        <v>0.001993199999986928</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7388,10 +7388,10 @@
         <v>7.906904356439153e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>19.99994498958661</v>
+        <v>19.99994498958662</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26765639594495</v>
+        <v>46.26765639594496</v>
       </c>
       <c r="H85" t="n">
         <v>11.20538636858576</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>1.250451839557007e-11</v>
+        <v>1.250451839299264e-11</v>
       </c>
       <c r="V85" t="n">
-        <v>2.403871814349579e-05</v>
+        <v>2.403871814520445e-05</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003810000000001423</v>
+        <v>0.001649599999979046</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7476,7 +7476,7 @@
         <v>8.287354777687069</v>
       </c>
       <c r="H86" t="n">
-        <v>7.442965305641797</v>
+        <v>7.442965305641795</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>5.354794943788876</v>
       </c>
       <c r="P86" t="n">
-        <v>26.33684190788303</v>
+        <v>26.33684190788302</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>2.477700807531834e-12</v>
+        <v>2.477700807313404e-12</v>
       </c>
       <c r="V86" t="n">
-        <v>2.314350765914666e-05</v>
+        <v>2.314350765780201e-05</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.004936099999994781</v>
+        <v>0.001412499999986494</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.6671307885386</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107514559119446</v>
+        <v>9.107514559119448</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>17.50678391245108</v>
       </c>
       <c r="O87" t="n">
-        <v>40.31705519315698</v>
+        <v>40.31705519315697</v>
       </c>
       <c r="P87" t="n">
         <v>17.50692136108723</v>
@@ -7597,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>4.564330410833975e-11</v>
+        <v>4.564330410751523e-11</v>
       </c>
       <c r="V87" t="n">
-        <v>4.230135776282174e-05</v>
+        <v>4.230135775654215e-05</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002458899999993491</v>
+        <v>0.001699299999984305</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7637,10 +7637,10 @@
         <v>20.00000423370652</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46920695439704</v>
+        <v>36.46920695439702</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485131668344972</v>
+        <v>5.485131668344975</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>6.754167844987568e-13</v>
+        <v>6.754167841392945e-13</v>
       </c>
       <c r="V88" t="n">
-        <v>9.669881169477839e-06</v>
+        <v>9.669881170692277e-06</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.005586700000009159</v>
+        <v>0.001656599999989794</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>6.54371463790943e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>19.99993385701155</v>
+        <v>19.99993385701154</v>
       </c>
       <c r="G89" t="n">
         <v>118.1275767512437</v>
@@ -7746,7 +7746,7 @@
         <v>60.80504138710896</v>
       </c>
       <c r="P89" t="n">
-        <v>18.86887332093476</v>
+        <v>18.86887332093475</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>7.794510476243005e-12</v>
+        <v>7.794510475231995e-12</v>
       </c>
       <c r="V89" t="n">
-        <v>2.015813984363292e-05</v>
+        <v>2.015813983714844e-05</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004618000000007783</v>
+        <v>0.003364800000014156</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7798,13 +7798,13 @@
         <v>359.9999984277904</v>
       </c>
       <c r="F90" t="n">
-        <v>20.00001170092714</v>
+        <v>20.00001170092715</v>
       </c>
       <c r="G90" t="n">
         <v>116.5591708841785</v>
       </c>
       <c r="H90" t="n">
-        <v>9.08580441518583</v>
+        <v>9.085804415185835</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,10 +7825,10 @@
         <v>16.60650249154164</v>
       </c>
       <c r="O90" t="n">
-        <v>41.12816202530749</v>
+        <v>41.1281620253075</v>
       </c>
       <c r="P90" t="n">
-        <v>16.60651672130259</v>
+        <v>16.6065167213026</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>5.457280305837295e-13</v>
+        <v>5.45728030704822e-13</v>
       </c>
       <c r="V90" t="n">
-        <v>4.555479717708383e-06</v>
+        <v>4.555479720244377e-06</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004784899999989989</v>
+        <v>0.001909999999980982</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,7 +7883,7 @@
         <v>20.00001147951927</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94493262106808</v>
+        <v>89.94493262106809</v>
       </c>
       <c r="H91" t="n">
         <v>6.071253837228189</v>
@@ -7925,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>8.340120299475596e-13</v>
+        <v>8.340120303308633e-13</v>
       </c>
       <c r="V91" t="n">
-        <v>6.725758656449113e-06</v>
+        <v>6.725758656814845e-06</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.006737299999997504</v>
+        <v>0.00186499999998091</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7962,13 +7962,13 @@
         <v>359.999999364717</v>
       </c>
       <c r="F92" t="n">
-        <v>19.99999990255791</v>
+        <v>19.9999999025579</v>
       </c>
       <c r="G92" t="n">
         <v>27.54973969100062</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892233226799222</v>
+        <v>4.892233226799221</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>6.015640374871489e-14</v>
+        <v>6.015640366391421e-14</v>
       </c>
       <c r="V92" t="n">
-        <v>3.680643590983464e-06</v>
+        <v>3.680643590271255e-06</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002163699999996993</v>
+        <v>0.001657199999982595</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>20.00001265690558</v>
       </c>
       <c r="G93" t="n">
-        <v>36.18059985506396</v>
+        <v>36.18059985506395</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948272780799881</v>
+        <v>6.948272780799883</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>2.423023201393602e-12</v>
+        <v>2.423023202543971e-12</v>
       </c>
       <c r="V93" t="n">
-        <v>1.479215652066292e-05</v>
+        <v>1.47921565217782e-05</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.005590499999996723</v>
+        <v>0.001732400000008738</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>359.9999913983281</v>
       </c>
       <c r="F94" t="n">
-        <v>20.00006170407559</v>
+        <v>20.00006170407558</v>
       </c>
       <c r="G94" t="n">
         <v>159.4584158928473</v>
@@ -8153,10 +8153,10 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.23454859021028</v>
+        <v>62.23454859021031</v>
       </c>
       <c r="P94" t="n">
-        <v>7.253321100923199</v>
+        <v>7.253321100923196</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>1.131804968886505e-11</v>
+        <v>1.131804968361327e-11</v>
       </c>
       <c r="V94" t="n">
-        <v>2.039053079263366e-05</v>
+        <v>2.039053079074834e-05</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005388300000007007</v>
+        <v>0.004591400000009571</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>1.391915729083692e-11</v>
+        <v>1.391915729096991e-11</v>
       </c>
       <c r="V95" t="n">
         <v>2.398475600047002e-05</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002803999999997586</v>
+        <v>0.001974499999988666</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,7 +8290,7 @@
         <v>359.9999870269269</v>
       </c>
       <c r="F96" t="n">
-        <v>20.0000994686306</v>
+        <v>20.00009946863059</v>
       </c>
       <c r="G96" t="n">
         <v>129.4893121820027</v>
@@ -8317,7 +8317,7 @@
         <v>14.32873211053184</v>
       </c>
       <c r="O96" t="n">
-        <v>48.29066511607226</v>
+        <v>48.29066511607225</v>
       </c>
       <c r="P96" t="n">
         <v>14.32883559194259</v>
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>3.547641325406585e-11</v>
+        <v>3.547641324876561e-11</v>
       </c>
       <c r="V96" t="n">
-        <v>3.601545440734588e-05</v>
+        <v>3.601545440565598e-05</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003695699999994417</v>
+        <v>0.00279789999999025</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8375,10 +8375,10 @@
         <v>20.00000708019823</v>
       </c>
       <c r="G97" t="n">
-        <v>41.18455900192284</v>
+        <v>41.18455900192286</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288274770307225</v>
+        <v>5.28827477030722</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>13.57118698273013</v>
       </c>
       <c r="P97" t="n">
-        <v>22.79602807688052</v>
+        <v>22.79602807688051</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>1.325693427645469e-12</v>
+        <v>1.325693426818817e-12</v>
       </c>
       <c r="V97" t="n">
-        <v>1.326326107823484e-05</v>
+        <v>1.326326107422576e-05</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002153899999996156</v>
+        <v>0.001713999999992666</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8457,10 +8457,10 @@
         <v>19.99977568384067</v>
       </c>
       <c r="G98" t="n">
-        <v>38.64364506412019</v>
+        <v>38.64364506412018</v>
       </c>
       <c r="H98" t="n">
-        <v>13.91373195280691</v>
+        <v>13.91373195280692</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>20.86573041553264</v>
       </c>
       <c r="P98" t="n">
-        <v>32.55943774521129</v>
+        <v>32.55943774521131</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1.790359993238746e-10</v>
+        <v>1.790359993163973e-10</v>
       </c>
       <c r="V98" t="n">
-        <v>8.903303006713349e-05</v>
+        <v>8.903303006512941e-05</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002166599999995356</v>
+        <v>0.001561900000012884</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>4.174441100814345e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>19.99960685488108</v>
+        <v>19.9996068548811</v>
       </c>
       <c r="G99" t="n">
-        <v>150.6501992153409</v>
+        <v>150.6501992153408</v>
       </c>
       <c r="H99" t="n">
-        <v>14.64246917714054</v>
+        <v>14.64246917714055</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>9.999091878929827</v>
       </c>
       <c r="O99" t="n">
-        <v>78.06586391027513</v>
+        <v>78.0658639102751</v>
       </c>
       <c r="P99" t="n">
-        <v>9.998820005079066</v>
+        <v>9.998820005079077</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>2.093517771474832e-10</v>
+        <v>2.093517771374753e-10</v>
       </c>
       <c r="V99" t="n">
-        <v>0.000116470300433579</v>
+        <v>0.0001164703004279551</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005505299999995827</v>
+        <v>0.004567100000002711</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8618,13 +8618,13 @@
         <v>359.9999969527638</v>
       </c>
       <c r="F100" t="n">
-        <v>20.00002239409607</v>
+        <v>20.00002239409606</v>
       </c>
       <c r="G100" t="n">
         <v>131.8080703972823</v>
       </c>
       <c r="H100" t="n">
-        <v>9.806283393557772</v>
+        <v>9.806283393557768</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8645,10 +8645,10 @@
         <v>13.77788699865662</v>
       </c>
       <c r="O100" t="n">
-        <v>46.18449716975428</v>
+        <v>46.18449716975427</v>
       </c>
       <c r="P100" t="n">
-        <v>13.77791014291023</v>
+        <v>13.77791014291022</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8663,10 +8663,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>1.998532324923648e-12</v>
+        <v>1.998532323631807e-12</v>
       </c>
       <c r="V100" t="n">
-        <v>8.327804533338699e-06</v>
+        <v>8.327804532003215e-06</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003325300000000198</v>
+        <v>0.002498099999996839</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8700,13 +8700,13 @@
         <v>359.999997533078</v>
       </c>
       <c r="F101" t="n">
-        <v>20.00001782508296</v>
+        <v>20.00001782508297</v>
       </c>
       <c r="G101" t="n">
         <v>121.010109420931</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856952652679015</v>
+        <v>8.856952652679016</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>40.80277215381846</v>
       </c>
       <c r="P101" t="n">
-        <v>15.73133648000944</v>
+        <v>15.73133648000945</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>1.352431375309415e-12</v>
+        <v>1.352431375331454e-12</v>
       </c>
       <c r="V101" t="n">
-        <v>7.033925389180471e-06</v>
+        <v>7.033925390058268e-06</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002671100000000592</v>
+        <v>0.001971800000006851</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
